--- a/AV/RAD.xlsx
+++ b/AV/RAD.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\SEMS\AV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="381">
   <si>
     <t>Site Code</t>
   </si>
@@ -141,9 +146,6 @@
     <t>E1</t>
   </si>
   <si>
-    <t>HRP-G1</t>
-  </si>
-  <si>
     <t>137.229.36.184</t>
   </si>
   <si>
@@ -189,9 +191,6 @@
     <t>AEC</t>
   </si>
   <si>
-    <t>ANC-Rep-G1</t>
-  </si>
-  <si>
     <t>00:07:E7:8F:63:F3</t>
   </si>
   <si>
@@ -267,9 +266,6 @@
     <t>Guralp</t>
   </si>
   <si>
-    <t>ANC-Rep</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
@@ -288,9 +284,6 @@
     <t>192.18.16.1</t>
   </si>
   <si>
-    <t>ANC-Rep-G2</t>
-  </si>
-  <si>
     <t>00:07:E7:85:F5:22</t>
   </si>
   <si>
@@ -324,9 +317,6 @@
     <t>SPCG</t>
   </si>
   <si>
-    <t>ANC-Rep-G3</t>
-  </si>
-  <si>
     <t>00:07:E7:85:EC:8D</t>
   </si>
   <si>
@@ -360,9 +350,6 @@
     <t>CKT-Rep</t>
   </si>
   <si>
-    <t>ANC-Rep-G4</t>
-  </si>
-  <si>
     <t>192.18.16.62</t>
   </si>
   <si>
@@ -396,9 +383,6 @@
     <t>SLK-Rep</t>
   </si>
   <si>
-    <t>ANC-Rep-G5</t>
-  </si>
-  <si>
     <t>00:07:E7:8F:63:E6</t>
   </si>
   <si>
@@ -1162,12 +1146,30 @@
   </si>
   <si>
     <t>HRP-Rx</t>
+  </si>
+  <si>
+    <t>HRP-Rx-G1</t>
+  </si>
+  <si>
+    <t>ANC-Rx-G2</t>
+  </si>
+  <si>
+    <t>ANC-Rx-G3</t>
+  </si>
+  <si>
+    <t>ANC-Rx-G4</t>
+  </si>
+  <si>
+    <t>ANC-Rx-G5</t>
+  </si>
+  <si>
+    <t>ANC-Rx-G1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1704,6 +1706,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1751,7 +1756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1784,9 +1789,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1819,6 +1841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1998,15 +2037,18 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="9.140625" style="102"/>
+    <col min="1" max="1" width="21.3984375" style="102" customWidth="1"/>
+    <col min="2" max="5" width="9.1328125" style="102"/>
+    <col min="6" max="6" width="21.59765625" style="102" customWidth="1"/>
+    <col min="7" max="26" width="9.1328125" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2086,9 +2128,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>26</v>
@@ -2162,7 +2204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
@@ -2179,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="G3" s="9">
         <v>9397081</v>
@@ -2188,7 +2230,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="9">
         <v>80</v>
@@ -2203,7 +2245,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>35</v>
@@ -2215,7 +2257,7 @@
         <v>36</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>37</v>
@@ -2240,9 +2282,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -2264,16 +2306,16 @@
         <v>30</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="12">
+        <v>80</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="12">
-        <v>80</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>34</v>
@@ -2282,7 +2324,7 @@
         <v>11</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="12">
         <v>1600</v>
@@ -2316,9 +2358,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>40</v>
@@ -2333,7 +2375,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="16">
         <v>9397142</v>
@@ -2342,25 +2384,25 @@
         <v>30</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="16">
         <v>80</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="16">
         <v>1600</v>
@@ -2369,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="16" t="s">
         <v>37</v>
@@ -2394,9 +2436,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>40</v>
@@ -2411,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="16">
         <v>9397101</v>
@@ -2420,25 +2462,25 @@
         <v>30</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="16">
         <v>80</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="16">
         <v>1600</v>
@@ -2447,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>37</v>
@@ -2472,15 +2514,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
@@ -2489,31 +2531,31 @@
         <v>29</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="G7" s="9">
         <v>9397235</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="9">
+        <v>80</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="J7" s="9">
-        <v>80</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="9">
         <v>8</v>
@@ -2522,10 +2564,10 @@
         <v>900</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>37</v>
@@ -2550,15 +2592,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
@@ -2571,19 +2613,19 @@
         <v>9397231</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5">
         <v>80</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>34</v>
@@ -2598,10 +2640,10 @@
         <v>900</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>37</v>
@@ -2626,15 +2668,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>28</v>
@@ -2643,31 +2685,31 @@
         <v>29</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="16">
         <v>9397122</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="16">
         <v>80</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="16">
         <v>4</v>
@@ -2679,10 +2721,10 @@
         <v>36</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T9" s="13"/>
       <c r="U9" s="16">
@@ -2704,9 +2746,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>26</v>
@@ -2725,19 +2767,19 @@
         <v>9397087</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J10" s="12">
         <v>80</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>34</v>
@@ -2755,10 +2797,10 @@
         <v>36</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T10" s="13"/>
       <c r="U10" s="12">
@@ -2780,12 +2822,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>27</v>
@@ -2797,31 +2839,31 @@
         <v>29</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="16">
         <v>9397119</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" s="16">
         <v>80</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O11" s="16">
         <v>4</v>
@@ -2833,10 +2875,10 @@
         <v>36</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="16">
@@ -2846,7 +2888,7 @@
         <v>9600</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X11" s="16">
         <v>7001</v>
@@ -2855,34 +2897,34 @@
         <v>19200</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5">
         <v>8768259</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J12" s="5">
         <v>80</v>
@@ -2891,7 +2933,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>34</v>
@@ -2909,7 +2951,7 @@
         <v>36</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>37</v>
@@ -2934,33 +2976,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="G13" s="9">
         <v>8779042</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J13" s="9">
         <v>80</v>
@@ -2969,13 +3011,13 @@
         <v>32</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>35</v>
@@ -2984,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>37</v>
@@ -3000,7 +3042,7 @@
         <v>19200</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X13" s="9">
         <v>7001</v>
@@ -3009,12 +3051,12 @@
         <v>9600</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>40</v>
@@ -3023,22 +3065,22 @@
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="9">
         <v>8746909</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J14" s="9">
         <v>80</v>
@@ -3047,13 +3089,13 @@
         <v>32</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>35</v>
@@ -3065,7 +3107,7 @@
         <v>36</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>37</v>
@@ -3078,7 +3120,7 @@
         <v>9600</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X14" s="9">
         <v>7001</v>
@@ -3087,34 +3129,34 @@
         <v>115200</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12">
         <v>8768854</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J15" s="12">
         <v>80</v>
@@ -3123,7 +3165,7 @@
         <v>32</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>34</v>
@@ -3132,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P15" s="12">
         <v>115</v>
@@ -3141,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S15" s="12" t="s">
         <v>37</v>
@@ -3166,9 +3208,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>40</v>
@@ -3177,22 +3219,22 @@
         <v>27</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>102</v>
+        <v>377</v>
       </c>
       <c r="G16" s="16">
         <v>8776845</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J16" s="16">
         <v>80</v>
@@ -3201,16 +3243,16 @@
         <v>32</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="16">
         <v>115</v>
@@ -3219,7 +3261,7 @@
         <v>36</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>37</v>
@@ -3232,7 +3274,7 @@
         <v>9600</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X16" s="16">
         <v>7001</v>
@@ -3241,12 +3283,12 @@
         <v>115200</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -3255,22 +3297,22 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1">
         <v>8781936</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1">
         <v>80</v>
@@ -3279,13 +3321,13 @@
         <v>32</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1">
         <v>9</v>
@@ -3294,10 +3336,10 @@
         <v>125</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>37</v>
@@ -3319,34 +3361,34 @@
         <v>19200</v>
       </c>
       <c r="Z17" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="24" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="24">
         <v>8762693</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J18" s="24">
         <v>80</v>
@@ -3355,7 +3397,7 @@
         <v>32</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M18" s="24" t="s">
         <v>34</v>
@@ -3373,7 +3415,7 @@
         <v>36</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S18" s="24" t="s">
         <v>37</v>
@@ -3398,24 +3440,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="G19" s="1">
         <v>8782051</v>
@@ -3424,7 +3466,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J19" s="1">
         <v>80</v>
@@ -3433,13 +3475,13 @@
         <v>32</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O19" s="1">
         <v>9</v>
@@ -3448,10 +3490,10 @@
         <v>125</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>37</v>
@@ -3464,7 +3506,7 @@
         <v>9600</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X19" s="1">
         <v>7001</v>
@@ -3476,24 +3518,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>30</v>
@@ -3502,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J20" s="1">
         <v>80</v>
@@ -3511,13 +3553,13 @@
         <v>32</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O20" s="1">
         <v>9</v>
@@ -3526,10 +3568,10 @@
         <v>125</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>37</v>
@@ -3554,9 +3596,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
@@ -3565,13 +3607,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>30</v>
@@ -3580,7 +3622,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J21" s="1">
         <v>80</v>
@@ -3589,13 +3631,13 @@
         <v>32</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1">
         <v>9</v>
@@ -3604,10 +3646,10 @@
         <v>125</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>37</v>
@@ -3629,15 +3671,15 @@
         <v>19200</v>
       </c>
       <c r="Z21" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>27</v>
@@ -3653,10 +3695,10 @@
         <v>9397180</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J22" s="5">
         <v>80</v>
@@ -3665,7 +3707,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>34</v>
@@ -3674,7 +3716,7 @@
         <v>11</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P22" s="5">
         <v>130</v>
@@ -3683,7 +3725,7 @@
         <v>36</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>37</v>
@@ -3708,9 +3750,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>40</v>
@@ -3725,16 +3767,16 @@
         <v>29</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="G23" s="9">
         <v>9397222</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J23" s="9">
         <v>80</v>
@@ -3743,16 +3785,16 @@
         <v>32</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P23" s="9">
         <v>130</v>
@@ -3761,7 +3803,7 @@
         <v>36</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>37</v>
@@ -3786,9 +3828,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>26</v>
@@ -3797,20 +3839,20 @@
         <v>27</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J24" s="28">
         <v>8002</v>
@@ -3819,25 +3861,25 @@
         <v>32</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O24" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S24" s="28" t="s">
         <v>37</v>
@@ -3862,9 +3904,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>40</v>
@@ -3873,22 +3915,22 @@
         <v>27</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J25" s="32">
         <v>8003</v>
@@ -3897,25 +3939,25 @@
         <v>32</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N25" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="O25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="R25" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="S25" s="32" t="s">
         <v>37</v>
@@ -3928,7 +3970,7 @@
         <v>9600</v>
       </c>
       <c r="W25" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X25" s="32">
         <v>10004</v>
@@ -3937,12 +3979,12 @@
         <v>19200</v>
       </c>
       <c r="Z25" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
@@ -3951,22 +3993,22 @@
         <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J26" s="5">
         <v>8004</v>
@@ -3975,7 +4017,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>34</v>
@@ -3993,10 +4035,10 @@
         <v>36</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="5">
@@ -4006,7 +4048,7 @@
         <v>9600</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X26" s="5">
         <v>10006</v>
@@ -4018,9 +4060,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>40</v>
@@ -4029,22 +4071,22 @@
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J27" s="9">
         <v>8007</v>
@@ -4053,13 +4095,13 @@
         <v>32</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O27" s="9">
         <v>8</v>
@@ -4071,10 +4113,10 @@
         <v>36</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="9">
@@ -4093,34 +4135,34 @@
         <v>19200</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J28" s="12">
         <v>8008</v>
@@ -4129,7 +4171,7 @@
         <v>32</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>34</v>
@@ -4147,7 +4189,7 @@
         <v>36</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>30</v>
@@ -4172,24 +4214,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>30</v>
@@ -4198,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J29" s="16">
         <v>8009</v>
@@ -4207,13 +4249,13 @@
         <v>32</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O29" s="16">
         <v>7</v>
@@ -4222,10 +4264,10 @@
         <v>175</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S29" s="16" t="s">
         <v>30</v>
@@ -4238,7 +4280,7 @@
         <v>9600</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X29" s="16">
         <v>10012</v>
@@ -4247,12 +4289,12 @@
         <v>19200</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>40</v>
@@ -4261,13 +4303,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>30</v>
@@ -4276,7 +4318,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J30" s="16">
         <v>8011</v>
@@ -4285,13 +4327,13 @@
         <v>32</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O30" s="16">
         <v>7</v>
@@ -4300,10 +4342,10 @@
         <v>175</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S30" s="16" t="s">
         <v>30</v>
@@ -4325,24 +4367,24 @@
         <v>19200</v>
       </c>
       <c r="Z30" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="24" t="s">
@@ -4352,7 +4394,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J31" s="24">
         <v>8014</v>
@@ -4361,7 +4403,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M31" s="24" t="s">
         <v>34</v>
@@ -4379,7 +4421,7 @@
         <v>36</v>
       </c>
       <c r="R31" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S31" s="24" t="s">
         <v>37</v>
@@ -4404,24 +4446,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>30</v>
@@ -4430,7 +4472,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J32" s="1">
         <v>8015</v>
@@ -4439,13 +4481,13 @@
         <v>32</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O32" s="1">
         <v>6</v>
@@ -4454,10 +4496,10 @@
         <v>185</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
@@ -4482,9 +4524,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>40</v>
@@ -4493,13 +4535,13 @@
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>30</v>
@@ -4508,7 +4550,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J33" s="1">
         <v>8016</v>
@@ -4517,13 +4559,13 @@
         <v>32</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O33" s="1">
         <v>6</v>
@@ -4532,10 +4574,10 @@
         <v>185</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>37</v>
@@ -4557,12 +4599,12 @@
         <v>19200</v>
       </c>
       <c r="Z33" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -4571,13 +4613,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>30</v>
@@ -4586,7 +4628,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J34" s="1">
         <v>8017</v>
@@ -4595,13 +4637,13 @@
         <v>32</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O34" s="1">
         <v>6</v>
@@ -4610,10 +4652,10 @@
         <v>185</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>37</v>
@@ -4635,12 +4677,12 @@
         <v>19200</v>
       </c>
       <c r="Z34" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -4649,13 +4691,13 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>30</v>
@@ -4664,7 +4706,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J35" s="1">
         <v>8019</v>
@@ -4673,13 +4715,13 @@
         <v>32</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O35" s="1">
         <v>6</v>
@@ -4688,10 +4730,10 @@
         <v>185</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>37</v>
@@ -4713,12 +4755,12 @@
         <v>19200</v>
       </c>
       <c r="Z35" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -4733,7 +4775,7 @@
         <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>30</v>
@@ -4742,7 +4784,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J36" s="1">
         <v>8020</v>
@@ -4751,13 +4793,13 @@
         <v>32</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O36" s="1">
         <v>6</v>
@@ -4766,10 +4808,10 @@
         <v>185</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>37</v>
@@ -4782,7 +4824,7 @@
         <v>19200</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="X36" s="1">
         <v>7014</v>
@@ -4794,9 +4836,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="35" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>40</v>
@@ -4811,16 +4853,16 @@
         <v>29</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G37" s="36">
         <v>9397075</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J37" s="36">
         <v>8002</v>
@@ -4829,13 +4871,13 @@
         <v>32</v>
       </c>
       <c r="L37" s="36" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M37" s="36" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O37" s="36">
         <v>2</v>
@@ -4847,7 +4889,7 @@
         <v>36</v>
       </c>
       <c r="R37" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S37" s="36" t="s">
         <v>37</v>
@@ -4860,9 +4902,9 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="37"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>26</v>
@@ -4871,10 +4913,10 @@
         <v>27</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="38" t="s">
@@ -4884,7 +4926,7 @@
         <v>30</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J38" s="38">
         <v>8003</v>
@@ -4893,7 +4935,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M38" s="38" t="s">
         <v>34</v>
@@ -4911,7 +4953,7 @@
         <v>36</v>
       </c>
       <c r="R38" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S38" s="38" t="s">
         <v>37</v>
@@ -4936,9 +4978,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="36" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>40</v>
@@ -4947,22 +4989,22 @@
         <v>27</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F39" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="36" t="s">
         <v>171</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>178</v>
       </c>
       <c r="J39" s="36">
         <v>8004</v>
@@ -4971,13 +5013,13 @@
         <v>32</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M39" s="36" t="s">
         <v>34</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O39" s="36">
         <v>2</v>
@@ -4989,7 +5031,7 @@
         <v>36</v>
       </c>
       <c r="R39" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S39" s="36" t="s">
         <v>37</v>
@@ -5011,12 +5053,12 @@
         <v>19200</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="39" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>26</v>
@@ -5035,37 +5077,37 @@
         <v>9364798</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J40" s="39">
         <v>80</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L40" s="39" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N40" s="39" t="s">
         <v>11</v>
       </c>
       <c r="O40" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P40" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q40" s="39" t="s">
         <v>36</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S40" s="39" t="s">
         <v>37</v>
@@ -5090,9 +5132,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="41" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>40</v>
@@ -5107,43 +5149,43 @@
         <v>29</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G41" s="41">
         <v>9364898</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J41" s="41">
         <v>80</v>
       </c>
       <c r="K41" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="L41" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="M41" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="N41" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="O41" s="32" t="s">
-        <v>62</v>
-      </c>
       <c r="P41" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q41" s="41" t="s">
         <v>36</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S41" s="32" t="s">
         <v>37</v>
@@ -5156,7 +5198,7 @@
         <v>19200</v>
       </c>
       <c r="W41" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X41" s="32">
         <v>7001</v>
@@ -5168,12 +5210,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="38" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>27</v>
@@ -5189,19 +5231,19 @@
         <v>9364970</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J42" s="38">
         <v>80</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>34</v>
@@ -5219,7 +5261,7 @@
         <v>36</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>37</v>
@@ -5244,9 +5286,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="36" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>40</v>
@@ -5261,31 +5303,31 @@
         <v>29</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G43" s="36">
         <v>9364840</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J43" s="36">
         <v>80</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O43" s="36">
         <v>1</v>
@@ -5297,7 +5339,7 @@
         <v>36</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S43" s="36" t="s">
         <v>37</v>
@@ -5322,9 +5364,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="43" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B44" s="43" t="s">
         <v>26</v>
@@ -5339,25 +5381,25 @@
         <v>29</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G44" s="43">
         <v>9365093</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J44" s="43">
         <v>80</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>34</v>
@@ -5375,10 +5417,10 @@
         <v>36</v>
       </c>
       <c r="R44" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S44" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T44" s="13"/>
       <c r="U44" s="12">
@@ -5400,9 +5442,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="44" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B45" s="44" t="s">
         <v>40</v>
@@ -5417,31 +5459,31 @@
         <v>29</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G45" s="44">
         <v>9365008</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J45" s="44">
         <v>80</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="44" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N45" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O45" s="44">
         <v>2</v>
@@ -5453,10 +5495,10 @@
         <v>36</v>
       </c>
       <c r="R45" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S45" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="16">
@@ -5478,9 +5520,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="44" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B46" s="44" t="s">
         <v>40</v>
@@ -5495,31 +5537,31 @@
         <v>29</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G46" s="44">
         <v>9364995</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J46" s="44">
         <v>80</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L46" s="44" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N46" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O46" s="44">
         <v>2</v>
@@ -5531,10 +5573,10 @@
         <v>36</v>
       </c>
       <c r="R46" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S46" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T46" s="13"/>
       <c r="U46" s="16">
@@ -5553,12 +5595,12 @@
         <v>19200</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>26</v>
@@ -5577,19 +5619,19 @@
         <v>9458395</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J47" s="43">
         <v>80</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L47" s="43" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>34</v>
@@ -5598,7 +5640,7 @@
         <v>11</v>
       </c>
       <c r="O47" s="43" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P47" s="43">
         <v>120</v>
@@ -5607,7 +5649,7 @@
         <v>36</v>
       </c>
       <c r="R47" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S47" s="43" t="s">
         <v>37</v>
@@ -5632,9 +5674,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="44" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B48" s="44" t="s">
         <v>40</v>
@@ -5649,34 +5691,34 @@
         <v>29</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G48" s="44">
         <v>9458273</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J48" s="44">
         <v>80</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L48" s="44" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M48" s="16" t="s">
         <v>34</v>
       </c>
       <c r="N48" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O48" s="44" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P48" s="44">
         <v>120</v>
@@ -5685,7 +5727,7 @@
         <v>36</v>
       </c>
       <c r="R48" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S48" s="44" t="s">
         <v>37</v>
@@ -5710,9 +5752,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>40</v>
@@ -5721,40 +5763,40 @@
         <v>27</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G49" s="36">
         <v>8767965</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J49" s="36">
         <v>80</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O49" s="36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P49" s="36">
         <v>110</v>
@@ -5763,7 +5805,7 @@
         <v>36</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S49" s="36" t="s">
         <v>30</v>
@@ -5776,40 +5818,40 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="37"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="38">
         <v>8768824</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J50" s="38">
         <v>80</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>34</v>
@@ -5818,7 +5860,7 @@
         <v>11</v>
       </c>
       <c r="O50" s="38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P50" s="38">
         <v>110</v>
@@ -5827,7 +5869,7 @@
         <v>36</v>
       </c>
       <c r="R50" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S50" s="38" t="s">
         <v>30</v>
@@ -5844,51 +5886,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="36" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G51" s="36">
         <v>8779027</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J51" s="36">
         <v>80</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N51" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O51" s="36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P51" s="36">
         <v>110</v>
@@ -5897,7 +5939,7 @@
         <v>36</v>
       </c>
       <c r="R51" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S51" s="36" t="s">
         <v>30</v>
@@ -5910,9 +5952,9 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="37"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="36" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>40</v>
@@ -5921,40 +5963,40 @@
         <v>27</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G52" s="36">
         <v>8767952</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J52" s="36">
         <v>80</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O52" s="36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P52" s="36">
         <v>110</v>
@@ -5963,7 +6005,7 @@
         <v>36</v>
       </c>
       <c r="R52" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S52" s="36" t="s">
         <v>30</v>
@@ -5976,12 +6018,12 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="37"/>
     </row>
-    <row r="53" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="48" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>27</v>
@@ -5997,19 +6039,19 @@
         <v>9458270</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J53" s="49">
         <v>80</v>
       </c>
       <c r="K53" s="49" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L53" s="50" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M53" s="49" t="s">
         <v>34</v>
@@ -6018,14 +6060,14 @@
         <v>11</v>
       </c>
       <c r="O53" s="49" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P53" s="49">
         <v>130</v>
       </c>
       <c r="Q53" s="21"/>
       <c r="R53" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S53" s="49" t="s">
         <v>37</v>
@@ -6050,12 +6092,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="52" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="52" t="s">
         <v>27</v>
@@ -6067,41 +6109,41 @@
         <v>29</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G54" s="52">
         <v>9458427</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I54" s="52" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J54" s="52">
         <v>80</v>
       </c>
       <c r="K54" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L54" s="52" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M54" s="52" t="s">
         <v>34</v>
       </c>
       <c r="N54" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O54" s="52" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P54" s="52">
         <v>130</v>
       </c>
       <c r="Q54" s="21"/>
       <c r="R54" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S54" s="52" t="s">
         <v>37</v>
@@ -6126,9 +6168,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="52" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>40</v>
@@ -6143,7 +6185,7 @@
         <v>29</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G55" s="52" t="s">
         <v>30</v>
@@ -6152,32 +6194,32 @@
         <v>30</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J55" s="52">
         <v>80</v>
       </c>
       <c r="K55" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M55" s="52" t="s">
         <v>34</v>
       </c>
       <c r="N55" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O55" s="52" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P55" s="52">
         <v>130</v>
       </c>
       <c r="Q55" s="21"/>
       <c r="R55" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S55" s="52" t="s">
         <v>37</v>
@@ -6202,21 +6244,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C56" s="55" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="55" t="s">
@@ -6226,14 +6268,14 @@
         <v>30</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J56" s="56"/>
       <c r="K56" s="55" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L56" s="57" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M56" s="56"/>
       <c r="N56" s="56"/>
@@ -6250,24 +6292,24 @@
       <c r="Y56" s="56"/>
       <c r="Z56" s="58"/>
     </row>
-    <row r="57" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="59" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C57" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G57" s="59" t="s">
         <v>30</v>
@@ -6276,20 +6318,20 @@
         <v>30</v>
       </c>
       <c r="I57" s="59" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J57" s="56"/>
       <c r="K57" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L57" s="60" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M57" s="59" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O57" s="56"/>
       <c r="P57" s="56"/>
@@ -6304,24 +6346,24 @@
       <c r="Y57" s="56"/>
       <c r="Z57" s="58"/>
     </row>
-    <row r="58" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="59" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C58" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="59" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E58" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="59" t="s">
         <v>239</v>
-      </c>
-      <c r="F58" s="59" t="s">
-        <v>246</v>
       </c>
       <c r="G58" s="59">
         <v>9232835</v>
@@ -6330,20 +6372,20 @@
         <v>30</v>
       </c>
       <c r="I58" s="59" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J58" s="56"/>
       <c r="K58" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L58" s="60" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M58" s="59" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
@@ -6358,35 +6400,35 @@
       <c r="Y58" s="56"/>
       <c r="Z58" s="58"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="61" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C59" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F59" s="62"/>
       <c r="G59" s="61" t="s">
         <v>30</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I59" s="61" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J59" s="62"/>
       <c r="K59" s="61" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L59" s="62"/>
       <c r="M59" s="62"/>
@@ -6404,9 +6446,9 @@
       <c r="Y59" s="62"/>
       <c r="Z59" s="63"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="64" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>40</v>
@@ -6415,26 +6457,26 @@
         <v>27</v>
       </c>
       <c r="D60" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E60" s="64" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F60" s="62"/>
       <c r="G60" s="61" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="64" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I60" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J60" s="64">
         <v>4660</v>
       </c>
       <c r="K60" s="64" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L60" s="62"/>
       <c r="M60" s="62"/>
@@ -6452,9 +6494,9 @@
       <c r="Y60" s="62"/>
       <c r="Z60" s="63"/>
     </row>
-    <row r="61" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="65" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B61" s="65" t="s">
         <v>26</v>
@@ -6463,29 +6505,29 @@
         <v>27</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="65">
         <v>8776850</v>
       </c>
       <c r="H61" s="65" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J61" s="65">
         <v>80</v>
       </c>
       <c r="K61" s="65" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L61" s="65" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M61" s="65" t="s">
         <v>34</v>
@@ -6503,10 +6545,10 @@
         <v>36</v>
       </c>
       <c r="R61" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S61" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -6516,48 +6558,48 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="37"/>
     </row>
-    <row r="62" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="66" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G62" s="66">
         <v>8768030</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I62" s="66" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J62" s="66">
         <v>80</v>
       </c>
       <c r="K62" s="66" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L62" s="66" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M62" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O62" s="66">
         <v>1</v>
@@ -6566,13 +6608,13 @@
         <v>1001</v>
       </c>
       <c r="Q62" s="66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R62" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S62" s="66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
@@ -6582,9 +6624,9 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="37"/>
     </row>
-    <row r="63" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="67" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B63" s="67" t="s">
         <v>40</v>
@@ -6593,37 +6635,37 @@
         <v>27</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F63" s="67" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G63" s="67">
         <v>8746932</v>
       </c>
       <c r="H63" s="67" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I63" s="66" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J63" s="66">
         <v>80</v>
       </c>
       <c r="K63" s="66" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L63" s="66" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M63" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O63" s="66">
         <v>1</v>
@@ -6632,13 +6674,13 @@
         <v>1001</v>
       </c>
       <c r="Q63" s="66" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R63" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S63" s="67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
@@ -6648,9 +6690,9 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="37"/>
     </row>
-    <row r="64" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="68" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B64" s="68" t="s">
         <v>26</v>
@@ -6669,10 +6711,10 @@
         <v>9397225</v>
       </c>
       <c r="H64" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I64" s="68" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J64" s="69">
         <v>80</v>
@@ -6681,7 +6723,7 @@
         <v>32</v>
       </c>
       <c r="L64" s="69" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M64" s="69" t="s">
         <v>34</v>
@@ -6699,7 +6741,7 @@
         <v>36</v>
       </c>
       <c r="R64" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S64" s="68" t="s">
         <v>37</v>
@@ -6724,9 +6766,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="70" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B65" s="70" t="s">
         <v>40</v>
@@ -6741,16 +6783,16 @@
         <v>29</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G65" s="70">
         <v>9397265</v>
       </c>
       <c r="H65" s="70" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I65" s="70" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J65" s="71">
         <v>80</v>
@@ -6759,13 +6801,13 @@
         <v>32</v>
       </c>
       <c r="L65" s="71" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M65" s="71" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O65" s="70">
         <v>3</v>
@@ -6777,7 +6819,7 @@
         <v>36</v>
       </c>
       <c r="R65" s="70" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="S65" s="70" t="s">
         <v>37</v>
@@ -6802,9 +6844,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="70" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B66" s="70" t="s">
         <v>40</v>
@@ -6819,16 +6861,16 @@
         <v>29</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G66" s="70">
         <v>9397116</v>
       </c>
       <c r="H66" s="70" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I66" s="70" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J66" s="71">
         <v>80</v>
@@ -6837,13 +6879,13 @@
         <v>32</v>
       </c>
       <c r="L66" s="71" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M66" s="71" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O66" s="70">
         <v>3</v>
@@ -6855,7 +6897,7 @@
         <v>36</v>
       </c>
       <c r="R66" s="72" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="S66" s="70" t="s">
         <v>37</v>
@@ -6880,9 +6922,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="73" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B67" s="73" t="s">
         <v>26</v>
@@ -6891,29 +6933,29 @@
         <v>27</v>
       </c>
       <c r="D67" s="73" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E67" s="73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="73">
         <v>8768805</v>
       </c>
       <c r="H67" s="73" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I67" s="73" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J67" s="65">
         <v>80</v>
       </c>
       <c r="K67" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L67" s="65" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M67" s="65" t="s">
         <v>34</v>
@@ -6928,7 +6970,7 @@
         <v>110</v>
       </c>
       <c r="Q67" s="73" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="R67" s="6"/>
       <c r="S67" s="73" t="s">
@@ -6954,9 +6996,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="67" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B68" s="67" t="s">
         <v>40</v>
@@ -6965,37 +7007,37 @@
         <v>27</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E68" s="67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F68" s="67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G68" s="67">
         <v>8767958</v>
       </c>
       <c r="H68" s="67" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I68" s="67" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J68" s="66">
         <v>80</v>
       </c>
       <c r="K68" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L68" s="66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M68" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O68" s="67" t="s">
         <v>35</v>
@@ -7004,7 +7046,7 @@
         <v>110</v>
       </c>
       <c r="Q68" s="67" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R68" s="6"/>
       <c r="S68" s="67" t="s">
@@ -7030,48 +7072,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="67" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" s="67" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E69" s="67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F69" s="67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G69" s="67">
         <v>8768081</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I69" s="67" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J69" s="66">
         <v>80</v>
       </c>
       <c r="K69" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L69" s="66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M69" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O69" s="67" t="s">
         <v>35</v>
@@ -7080,7 +7122,7 @@
         <v>110</v>
       </c>
       <c r="Q69" s="67" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R69" s="6"/>
       <c r="S69" s="67" t="s">
@@ -7106,48 +7148,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="67" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70" s="67" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E70" s="67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F70" s="67" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G70" s="67">
         <v>8767936</v>
       </c>
       <c r="H70" s="67" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I70" s="67" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J70" s="66">
         <v>80</v>
       </c>
       <c r="K70" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L70" s="66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M70" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O70" s="67" t="s">
         <v>35</v>
@@ -7156,7 +7198,7 @@
         <v>110</v>
       </c>
       <c r="Q70" s="67" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="R70" s="6"/>
       <c r="S70" s="67" t="s">
@@ -7182,9 +7224,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="67" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B71" s="67" t="s">
         <v>40</v>
@@ -7193,37 +7235,37 @@
         <v>27</v>
       </c>
       <c r="D71" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E71" s="67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G71" s="67">
         <v>8768216</v>
       </c>
       <c r="H71" s="67" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I71" s="67" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J71" s="66">
         <v>80</v>
       </c>
       <c r="K71" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L71" s="66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M71" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O71" s="67" t="s">
         <v>35</v>
@@ -7232,7 +7274,7 @@
         <v>110</v>
       </c>
       <c r="Q71" s="67" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R71" s="6"/>
       <c r="S71" s="67" t="s">
@@ -7255,12 +7297,12 @@
         <v>19200</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="67" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B72" s="67" t="s">
         <v>40</v>
@@ -7269,13 +7311,13 @@
         <v>27</v>
       </c>
       <c r="D72" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E72" s="67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F72" s="67" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G72" s="67">
         <v>8782078</v>
@@ -7284,22 +7326,22 @@
         <v>30</v>
       </c>
       <c r="I72" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J72" s="66">
         <v>80</v>
       </c>
       <c r="K72" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L72" s="66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M72" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O72" s="67" t="s">
         <v>35</v>
@@ -7308,7 +7350,7 @@
         <v>110</v>
       </c>
       <c r="Q72" s="67" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="67" t="s">
@@ -7331,12 +7373,12 @@
         <v>19200</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="70" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B73" s="70" t="s">
         <v>40</v>
@@ -7345,44 +7387,44 @@
         <v>27</v>
       </c>
       <c r="D73" s="70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73" s="70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="70">
         <v>8768140</v>
       </c>
       <c r="H73" s="70" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I73" s="70" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J73" s="71">
         <v>80</v>
       </c>
       <c r="K73" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L73" s="71" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M73" s="71" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O73" s="70" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P73" s="70">
         <v>150</v>
       </c>
       <c r="Q73" s="70" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R73" s="13"/>
       <c r="S73" s="70" t="s">
@@ -7408,49 +7450,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="49" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C74" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="49">
         <v>8768682</v>
       </c>
       <c r="H74" s="49" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J74" s="50">
         <v>80</v>
       </c>
       <c r="K74" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L74" s="50" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N74" s="49" t="s">
         <v>11</v>
       </c>
       <c r="O74" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P74" s="49">
         <v>120</v>
@@ -7479,60 +7521,60 @@
         <v>19200</v>
       </c>
       <c r="Z74" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="52" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C75" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G75" s="74">
         <v>8760252</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I75" s="52" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J75" s="74">
         <v>80</v>
       </c>
       <c r="K75" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L75" s="74" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M75" s="74" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N75" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O75" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P75" s="52">
         <v>120</v>
       </c>
       <c r="Q75" s="52" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R75" s="21"/>
       <c r="S75" s="52" t="s">
@@ -7558,9 +7600,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="52" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B76" s="52" t="s">
         <v>26</v>
@@ -7569,31 +7611,31 @@
         <v>27</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F76" s="52" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G76" s="52">
         <v>8779024</v>
       </c>
       <c r="H76" s="52" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I76" s="52" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J76" s="74">
         <v>80</v>
       </c>
       <c r="K76" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L76" s="74" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M76" s="74" t="s">
         <v>34</v>
@@ -7602,7 +7644,7 @@
         <v>11</v>
       </c>
       <c r="O76" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P76" s="52">
         <v>120</v>
@@ -7634,9 +7676,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="52" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B77" s="52" t="s">
         <v>40</v>
@@ -7645,46 +7687,46 @@
         <v>27</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F77" s="52" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G77" s="52">
         <v>8781954</v>
       </c>
       <c r="H77" s="52" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I77" s="52" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J77" s="74">
         <v>80</v>
       </c>
       <c r="K77" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L77" s="74" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M77" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N77" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O77" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P77" s="52">
         <v>120</v>
       </c>
       <c r="Q77" s="52" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R77" s="21"/>
       <c r="S77" s="52" t="s">
@@ -7698,7 +7740,7 @@
         <v>9600</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X77" s="1">
         <v>7001</v>
@@ -7707,60 +7749,60 @@
         <v>19200</v>
       </c>
       <c r="Z77" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="52" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F78" s="52" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G78" s="52">
         <v>8768733</v>
       </c>
       <c r="H78" s="52" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I78" s="52" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J78" s="74">
         <v>80</v>
       </c>
       <c r="K78" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L78" s="74" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M78" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N78" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O78" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P78" s="52">
         <v>120</v>
       </c>
       <c r="Q78" s="52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R78" s="21"/>
       <c r="S78" s="52" t="s">
@@ -7786,9 +7828,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="52" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B79" s="52" t="s">
         <v>40</v>
@@ -7797,46 +7839,46 @@
         <v>27</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G79" s="52">
         <v>8781954</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J79" s="74">
         <v>80</v>
       </c>
       <c r="K79" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L79" s="74" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M79" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N79" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O79" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P79" s="52">
         <v>120</v>
       </c>
       <c r="Q79" s="52" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R79" s="21"/>
       <c r="S79" s="21"/>
@@ -7860,9 +7902,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="52" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B80" s="52" t="s">
         <v>40</v>
@@ -7871,46 +7913,46 @@
         <v>27</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F80" s="52" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G80" s="52">
         <v>8768168</v>
       </c>
       <c r="H80" s="52" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I80" s="52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J80" s="74">
         <v>80</v>
       </c>
       <c r="K80" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L80" s="74" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M80" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N80" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O80" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P80" s="52">
         <v>120</v>
       </c>
       <c r="Q80" s="52" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R80" s="21"/>
       <c r="S80" s="52" t="s">
@@ -7924,7 +7966,7 @@
         <v>9600</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X80" s="1">
         <v>7001</v>
@@ -7933,12 +7975,12 @@
         <v>19200</v>
       </c>
       <c r="Z80" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="64" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B81" s="64" t="s">
         <v>40</v>
@@ -7947,46 +7989,46 @@
         <v>27</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G81" s="64">
         <v>8767051</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I81" s="64" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J81" s="75">
         <v>80</v>
       </c>
       <c r="K81" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L81" s="75" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M81" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N81" s="64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O81" s="64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P81" s="64">
         <v>130</v>
       </c>
       <c r="Q81" s="64" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R81" s="62"/>
       <c r="S81" s="64" t="s">
@@ -8009,43 +8051,43 @@
         <v>19200</v>
       </c>
       <c r="Z81" s="79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="61" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C82" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E82" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="80">
         <v>8768189</v>
       </c>
       <c r="H82" s="61" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I82" s="61" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J82" s="80">
         <v>80</v>
       </c>
       <c r="K82" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L82" s="80" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M82" s="80" t="s">
         <v>34</v>
@@ -8054,7 +8096,7 @@
         <v>11</v>
       </c>
       <c r="O82" s="61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P82" s="61">
         <v>130</v>
@@ -8086,57 +8128,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="64" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E83" s="64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F83" s="64" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G83" s="64">
         <v>8768036</v>
       </c>
       <c r="H83" s="64" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I83" s="64" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J83" s="75">
         <v>80</v>
       </c>
       <c r="K83" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L83" s="75" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M83" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N83" s="64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O83" s="64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P83" s="64">
         <v>130</v>
       </c>
       <c r="Q83" s="64" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="R83" s="62"/>
       <c r="S83" s="64" t="s">
@@ -8159,12 +8201,12 @@
         <v>115200</v>
       </c>
       <c r="Z83" s="79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="64" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B84" s="64" t="s">
         <v>40</v>
@@ -8179,40 +8221,40 @@
         <v>29</v>
       </c>
       <c r="F84" s="64" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G84" s="64">
         <v>9397221</v>
       </c>
       <c r="H84" s="64" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I84" s="64" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J84" s="75">
         <v>80</v>
       </c>
       <c r="K84" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L84" s="75" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M84" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N84" s="64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O84" s="64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P84" s="64">
         <v>130</v>
       </c>
       <c r="Q84" s="64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R84" s="62"/>
       <c r="S84" s="64" t="s">
@@ -8235,12 +8277,12 @@
         <v>115200</v>
       </c>
       <c r="Z84" s="79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B85" s="64" t="s">
         <v>40</v>
@@ -8249,13 +8291,13 @@
         <v>27</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E85" s="64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F85" s="64" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G85" s="64">
         <v>8768632</v>
@@ -8264,31 +8306,31 @@
         <v>30</v>
       </c>
       <c r="I85" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J85" s="75">
         <v>80</v>
       </c>
       <c r="K85" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L85" s="75" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M85" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N85" s="64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O85" s="64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P85" s="64">
         <v>130</v>
       </c>
       <c r="Q85" s="64" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R85" s="62"/>
       <c r="S85" s="64" t="s">
@@ -8314,57 +8356,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E86" s="64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F86" s="64" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G86" s="64">
         <v>8768066</v>
       </c>
       <c r="H86" s="64" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I86" s="64" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J86" s="75">
         <v>80</v>
       </c>
       <c r="K86" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L86" s="75" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M86" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N86" s="64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O86" s="64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P86" s="64">
         <v>130</v>
       </c>
       <c r="Q86" s="64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R86" s="62"/>
       <c r="S86" s="64" t="s">
@@ -8390,9 +8432,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="55" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>26</v>
@@ -8407,7 +8449,7 @@
         <v>29</v>
       </c>
       <c r="F87" s="55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G87" s="55">
         <v>9364992</v>
@@ -8416,16 +8458,16 @@
         <v>30</v>
       </c>
       <c r="I87" s="55" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J87" s="57">
         <v>80</v>
       </c>
       <c r="K87" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L87" s="57" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M87" s="57" t="s">
         <v>34</v>
@@ -8440,7 +8482,7 @@
         <v>30</v>
       </c>
       <c r="Q87" s="55" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R87" s="56"/>
       <c r="S87" s="55" t="s">
@@ -8466,9 +8508,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="59" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B88" s="59" t="s">
         <v>40</v>
@@ -8483,7 +8525,7 @@
         <v>29</v>
       </c>
       <c r="F88" s="59" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G88" s="59">
         <v>9364928</v>
@@ -8492,22 +8534,22 @@
         <v>30</v>
       </c>
       <c r="I88" s="59" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J88" s="60">
         <v>80</v>
       </c>
       <c r="K88" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L88" s="60" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M88" s="60" t="s">
         <v>34</v>
       </c>
       <c r="N88" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O88" s="59" t="s">
         <v>30</v>
@@ -8542,40 +8584,40 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="85" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B89" s="85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C89" s="85" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E89" s="85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F89" s="86"/>
       <c r="G89" s="85">
         <v>8768183</v>
       </c>
       <c r="H89" s="85" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I89" s="85" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J89" s="87">
         <v>80</v>
       </c>
       <c r="K89" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L89" s="87" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M89" s="87" t="s">
         <v>34</v>
@@ -8584,7 +8626,7 @@
         <v>11</v>
       </c>
       <c r="O89" s="85" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P89" s="85">
         <v>140</v>
@@ -8616,57 +8658,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="91" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C90" s="91" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E90" s="91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F90" s="91" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G90" s="91">
         <v>8768170</v>
       </c>
       <c r="H90" s="91" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="I90" s="91" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J90" s="92">
         <v>80</v>
       </c>
       <c r="K90" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L90" s="92" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M90" s="92" t="s">
         <v>34</v>
       </c>
       <c r="N90" s="91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O90" s="91" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P90" s="91">
         <v>140</v>
       </c>
       <c r="Q90" s="91" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R90" s="86"/>
       <c r="S90" s="91" t="s">
@@ -8692,9 +8734,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="91" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B91" s="91" t="s">
         <v>40</v>
@@ -8709,40 +8751,40 @@
         <v>29</v>
       </c>
       <c r="F91" s="91" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G91" s="91">
         <v>9364946</v>
       </c>
       <c r="H91" s="91" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I91" s="91" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J91" s="92">
         <v>80</v>
       </c>
       <c r="K91" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L91" s="92" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M91" s="92" t="s">
         <v>34</v>
       </c>
       <c r="N91" s="91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O91" s="91" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P91" s="91">
         <v>140</v>
       </c>
       <c r="Q91" s="91" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R91" s="86"/>
       <c r="S91" s="91" t="s">
@@ -8768,9 +8810,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="91" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B92" s="91" t="s">
         <v>40</v>
@@ -8779,46 +8821,46 @@
         <v>27</v>
       </c>
       <c r="D92" s="91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E92" s="91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F92" s="91" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G92" s="91">
         <v>8778966</v>
       </c>
       <c r="H92" s="91" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I92" s="91" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J92" s="92">
         <v>80</v>
       </c>
       <c r="K92" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L92" s="92" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M92" s="92" t="s">
         <v>34</v>
       </c>
       <c r="N92" s="91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O92" s="91" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P92" s="91">
         <v>140</v>
       </c>
       <c r="Q92" s="91" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R92" s="86"/>
       <c r="S92" s="91" t="s">
@@ -8841,12 +8883,12 @@
         <v>115200</v>
       </c>
       <c r="Z92" s="95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="91" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B93" s="91" t="s">
         <v>40</v>
@@ -8855,46 +8897,46 @@
         <v>27</v>
       </c>
       <c r="D93" s="91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E93" s="91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F93" s="91" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G93" s="91">
         <v>8781860</v>
       </c>
       <c r="H93" s="91" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I93" s="91" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J93" s="92">
         <v>80</v>
       </c>
       <c r="K93" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L93" s="92" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M93" s="92" t="s">
         <v>34</v>
       </c>
       <c r="N93" s="91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O93" s="91" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P93" s="91">
         <v>140</v>
       </c>
       <c r="Q93" s="91" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R93" s="86"/>
       <c r="S93" s="91" t="s">
@@ -8917,12 +8959,12 @@
         <v>115200</v>
       </c>
       <c r="Z93" s="95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="73" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B94" s="73" t="s">
         <v>26</v>
@@ -8934,7 +8976,7 @@
         <v>28</v>
       </c>
       <c r="E94" s="73" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="73" t="s">
@@ -8944,7 +8986,7 @@
         <v>30</v>
       </c>
       <c r="I94" s="73" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J94" s="65">
         <v>8002</v>
@@ -8953,7 +8995,7 @@
         <v>32</v>
       </c>
       <c r="L94" s="65" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M94" s="65" t="s">
         <v>34</v>
@@ -8972,7 +9014,7 @@
       </c>
       <c r="R94" s="6"/>
       <c r="S94" s="73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T94" s="6"/>
       <c r="U94" s="5">
@@ -8994,9 +9036,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="67" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B95" s="67" t="s">
         <v>40</v>
@@ -9008,10 +9050,10 @@
         <v>28</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F95" s="67" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G95" s="67" t="s">
         <v>30</v>
@@ -9020,7 +9062,7 @@
         <v>30</v>
       </c>
       <c r="I95" s="67" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J95" s="66">
         <v>8003</v>
@@ -9029,13 +9071,13 @@
         <v>32</v>
       </c>
       <c r="L95" s="66" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M95" s="66" t="s">
         <v>34</v>
       </c>
       <c r="N95" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O95" s="67">
         <v>1</v>
@@ -9048,7 +9090,7 @@
       </c>
       <c r="R95" s="6"/>
       <c r="S95" s="67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T95" s="6"/>
       <c r="U95" s="9">
@@ -9070,21 +9112,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="68" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C96" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="68" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E96" s="68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="68" t="s">
@@ -9094,7 +9136,7 @@
         <v>30</v>
       </c>
       <c r="I96" s="68" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J96" s="69">
         <v>8004</v>
@@ -9103,7 +9145,7 @@
         <v>32</v>
       </c>
       <c r="L96" s="69" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M96" s="69" t="s">
         <v>34</v>
@@ -9132,7 +9174,7 @@
         <v>9600</v>
       </c>
       <c r="W96" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X96" s="12">
         <v>7005</v>
@@ -9144,9 +9186,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="70" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B97" s="70" t="s">
         <v>40</v>
@@ -9155,13 +9197,13 @@
         <v>27</v>
       </c>
       <c r="D97" s="70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F97" s="70" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G97" s="70" t="s">
         <v>30</v>
@@ -9170,7 +9212,7 @@
         <v>30</v>
       </c>
       <c r="I97" s="70" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J97" s="71">
         <v>8005</v>
@@ -9179,13 +9221,13 @@
         <v>32</v>
       </c>
       <c r="L97" s="71" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M97" s="71" t="s">
         <v>34</v>
       </c>
       <c r="N97" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O97" s="70">
         <v>2</v>
@@ -9217,12 +9259,12 @@
         <v>19200</v>
       </c>
       <c r="Z97" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="49" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B98" s="49" t="s">
         <v>26</v>
@@ -9231,13 +9273,13 @@
         <v>27</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E98" s="49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F98" s="49" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G98" s="49" t="s">
         <v>30</v>
@@ -9246,7 +9288,7 @@
         <v>30</v>
       </c>
       <c r="I98" s="49" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J98" s="50">
         <v>8006</v>
@@ -9255,7 +9297,7 @@
         <v>32</v>
       </c>
       <c r="L98" s="50" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M98" s="50" t="s">
         <v>34</v>
@@ -9296,9 +9338,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="52" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B99" s="52" t="s">
         <v>40</v>
@@ -9307,13 +9349,13 @@
         <v>27</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G99" s="52" t="s">
         <v>30</v>
@@ -9322,7 +9364,7 @@
         <v>30</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J99" s="74">
         <v>8007</v>
@@ -9331,13 +9373,13 @@
         <v>32</v>
       </c>
       <c r="L99" s="74" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M99" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N99" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O99" s="52">
         <v>3</v>
@@ -9369,24 +9411,24 @@
         <v>19200</v>
       </c>
       <c r="Z99" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="61" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="B100" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="61" t="s">
-        <v>85</v>
-      </c>
       <c r="E100" s="61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F100" s="62"/>
       <c r="G100" s="64" t="s">
@@ -9405,7 +9447,7 @@
         <v>32</v>
       </c>
       <c r="L100" s="75" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M100" s="75" t="s">
         <v>34</v>
@@ -9424,7 +9466,7 @@
       </c>
       <c r="R100" s="62"/>
       <c r="S100" s="61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T100" s="62"/>
       <c r="U100" s="77" t="s">
@@ -9446,24 +9488,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="96" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B101" s="96" t="s">
         <v>40</v>
       </c>
       <c r="C101" s="97" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D101" s="97" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E101" s="97" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F101" s="96" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G101" s="96" t="s">
         <v>30</v>
@@ -9481,13 +9523,13 @@
         <v>32</v>
       </c>
       <c r="L101" s="98" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M101" s="98" t="s">
         <v>34</v>
       </c>
       <c r="N101" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O101" s="96">
         <v>6</v>
@@ -9500,7 +9542,7 @@
       </c>
       <c r="R101" s="99"/>
       <c r="S101" s="96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T101" s="99"/>
       <c r="U101" s="100" t="s">
@@ -9533,7 +9575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9545,7 +9587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
